--- a/medicine/Psychotrope/Mon_année_de_repos_et_de_détente/Mon_année_de_repos_et_de_détente.xlsx
+++ b/medicine/Psychotrope/Mon_année_de_repos_et_de_détente/Mon_année_de_repos_et_de_détente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mon_ann%C3%A9e_de_repos_et_de_d%C3%A9tente</t>
+          <t>Mon_année_de_repos_et_de_détente</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mon année de repos et de détente (My year of rest and relaxation) est un roman de fiction psychologique écrit par l'autrice américaine Ottessa Moshfegh. L'intrigue se déroule à New York entre 2000 et 2001 et suit une protagoniste anonyme qui augmente progressivement sa consommation de médicaments grâce à une psychiatre douteuse dans le but de dormir pendant une année entière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mon_ann%C3%A9e_de_repos_et_de_d%C3%A9tente</t>
+          <t>Mon_année_de_repos_et_de_détente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Contexte et publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mon année de repos et de détente est le deuxième roman d'Otessa Moshfegh, faisant suite à Eileen (2015), lauréat du Prix Booker[1], ainsi qu'a McGlue (2014) et à un recueil de nouvelles nommé Homesick for Another World[2] (2017). S’il était initialement prévu que Mon année de repos et de détente soit principalement axé sur les attaques terroristes du 11 septembre 2001, l'autrice allant même jusqu'à contacter l'expert en terrorisme Paul Bremer, le projet a ensuite pris une autre tournure[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon année de repos et de détente est le deuxième roman d'Otessa Moshfegh, faisant suite à Eileen (2015), lauréat du Prix Booker, ainsi qu'a McGlue (2014) et à un recueil de nouvelles nommé Homesick for Another World (2017). S’il était initialement prévu que Mon année de repos et de détente soit principalement axé sur les attaques terroristes du 11 septembre 2001, l'autrice allant même jusqu'à contacter l'expert en terrorisme Paul Bremer, le projet a ensuite pris une autre tournure.
 Mon année de repos et de détente a été publié pour la première fois aux États-Unis le 10 juillet 2018 par Penguin Press.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mon_ann%C3%A9e_de_repos_et_de_d%C3%A9tente</t>
+          <t>Mon_année_de_repos_et_de_détente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mon année de repos et de détente suit le discours intérieur d'une jeune New-Yorkaise riche, belle et récemment diplômée de l'Université de Colombia qui décide de mettre sa vie en pause en s'assommant de somnifères dans le but d'hiberner pendant toute une année. Bien que le roman soit entièrement écrit à la première personne, la narratrice reste anonyme.
 Devenue orpheline de père et de mère durant ses études d'histoire de l'art, l'héroïne anonyme de Mon année de repos et de détente réside dans le cossu Upper East Side, où elle se morfond dans un ennui profond depuis l'obtention de son diplôme. Lorsque la narratrice est licenciée de son travail de vendeuse dans une galerie d'art, elle choisit de vivre des allocations de chômage et de son héritage tout en essayant de dormir pendant un an dans le but de réinitialiser sa vie. Mais son "année de repos et de détente" est régulièrement interrompue par les visites fréquentes et inopinées de sa colocataire d'université Reva, qui lui envie sans vergogne sa richesse son apparence. Ces interruptions sont acceptées par le personnage principal malgré un dédain certain pour l'ascension sociale de son amie et son agacement prononcé de devoir écouter les problèmes de Reva, dont la mère est atteinte d'un cancer en phase terminale et qui mène une affaire frustrante avec son patron marié. La narratrice est également occasionnellement en contact avec un petit ami plus âgé, Trevor (un banquier qui travaille au World Trade Center), bien qu'il coupe fréquemment les ponts pour sortir avec des femmes de son âge.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mon_ann%C3%A9e_de_repos_et_de_d%C3%A9tente</t>
+          <t>Mon_année_de_repos_et_de_détente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,12 +594,14 @@
           <t>Réception</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman a reçu des critiques très positives sur le site agrégateur de critiques littéraires Bookmarks[4],[5]. Dans Slate, Laura Miller fait l'éloge du roman en ces termes : «Moshfegh excelle ici à mettre en place un personnage et une situation immédiatement intrigants, puis à amplifier la bizarrerie au point qu'une rupture semble inévitable.»[6] Publishers Weekly trouve également le livre "captivant et inquiétant, présentant le mélange caractéristique de provocation et d'humour noir de Moshfegh»[7]. Plusieurs critiques, dont Miller et Publishers Weekly, estiment que «le roman traîne un peu au milieu»[7], bien que la fin ait été largement saluée[8], Miller ajoute que l'autrice Otessa Moshfegh «a trouvé un moyen plus satisfaisant de résoudre l'intrigue» dans Mon année de repos et de détente que dans son premier roman, Eileen[6].
-Dans sa critique du roman dans The New Yorker, Jia Tolentino écrit : «Ottessa Moshfegh est de loin l'écrivain américain contemporain le plus intéressant sur le sujet d'être en vie alors qu'être en vie est terrible»[9] Dans le New York Times, Dwight Garner conclu que «Moshfegh écrit avec tellement d'aplomb misanthropique, cependant, qu'elle est toujours un plaisir profond à lire. Elle a un œil sans sommeil et dispense des observations comme si elle sortait d'une pipette toxique.»[10]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman a reçu des critiques très positives sur le site agrégateur de critiques littéraires Bookmarks,. Dans Slate, Laura Miller fait l'éloge du roman en ces termes : «Moshfegh excelle ici à mettre en place un personnage et une situation immédiatement intrigants, puis à amplifier la bizarrerie au point qu'une rupture semble inévitable.» Publishers Weekly trouve également le livre "captivant et inquiétant, présentant le mélange caractéristique de provocation et d'humour noir de Moshfegh». Plusieurs critiques, dont Miller et Publishers Weekly, estiment que «le roman traîne un peu au milieu», bien que la fin ait été largement saluée, Miller ajoute que l'autrice Otessa Moshfegh «a trouvé un moyen plus satisfaisant de résoudre l'intrigue» dans Mon année de repos et de détente que dans son premier roman, Eileen.
+Dans sa critique du roman dans The New Yorker, Jia Tolentino écrit : «Ottessa Moshfegh est de loin l'écrivain américain contemporain le plus intéressant sur le sujet d'être en vie alors qu'être en vie est terrible» Dans le New York Times, Dwight Garner conclu que «Moshfegh écrit avec tellement d'aplomb misanthropique, cependant, qu'elle est toujours un plaisir profond à lire. Elle a un œil sans sommeil et dispense des observations comme si elle sortait d'une pipette toxique.»
 Le roman a été présenté comme «Le meilleur roman existentialiste qui n'ait pas été écrit par un auteur français.» par Kirkus Reviews.
-Pour les éditions Fayard, «Les tribulations assoupies de cette Oblomov de la génération Y forment un récit hilarant qui est aussi une charge au vitriol contre les travers de notre époque.»[11]
+Pour les éditions Fayard, «Les tribulations assoupies de cette Oblomov de la génération Y forment un récit hilarant qui est aussi une charge au vitriol contre les travers de notre époque.»
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mon_ann%C3%A9e_de_repos_et_de_d%C3%A9tente</t>
+          <t>Mon_année_de_repos_et_de_détente</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,10 +630,12 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2018, l'actrice Margot Robbie achète les droits du livre avec sa société de production LuckyChap Entertainment dans le but d'en faire une adaptation cinématographique.
-Une adaptation théâtrale en langue allemande de My Year of Rest and Relaxation, Mein Jahr der Ruhe und Entspannung, a été créée en 2020 à Zurich, en Suisse, sous la mise en scène de Yana Ross[12].
+Une adaptation théâtrale en langue allemande de My Year of Rest and Relaxation, Mein Jahr der Ruhe und Entspannung, a été créée en 2020 à Zurich, en Suisse, sous la mise en scène de Yana Ross.
 </t>
         </is>
       </c>
